--- a/Table_S6_RTqPCR-dCT_ms.xlsx
+++ b/Table_S6_RTqPCR-dCT_ms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikaellison/Library/Mobile Documents/com~apple~CloudDocs/Documents/umn.pmb/SpringerLab/manuscripts/mu.pro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD4C8A8-2478-6F48-BC53-9860559325BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8739A8E-978A-0F48-B321-68D3F6E469CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1940" windowWidth="38400" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="580" windowWidth="38400" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230318_dCT_TableS6" sheetId="1" r:id="rId1"/>
@@ -625,12 +625,6 @@
     <t>Allele</t>
   </si>
   <si>
-    <t>Mu promoter</t>
-  </si>
-  <si>
-    <t>gene promoter</t>
-  </si>
-  <si>
     <t>F_ID</t>
   </si>
   <si>
@@ -719,6 +713,12 @@
   </si>
   <si>
     <t>Transcript</t>
+  </si>
+  <si>
+    <t>Mu TSS</t>
+  </si>
+  <si>
+    <t>gene TSS</t>
   </si>
 </sst>
 </file>
@@ -1609,14 +1609,14 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="198" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
@@ -1627,16 +1627,16 @@
         <v>200</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>114</v>
@@ -1700,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>126</v>
@@ -1735,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>120</v>
@@ -1770,13 +1770,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>126</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -1840,13 +1840,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -1875,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
@@ -1910,13 +1910,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>39</v>
@@ -1945,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>45</v>
@@ -1980,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>39</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>72</v>
@@ -2050,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>78</v>
@@ -2085,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>96</v>
@@ -2120,13 +2120,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>108</v>
@@ -2155,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>84</v>
@@ -2190,13 +2190,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>90</v>
@@ -2225,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>102</v>
@@ -2260,13 +2260,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>108</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>132</v>
@@ -2330,13 +2330,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>138</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>156</v>
@@ -2400,13 +2400,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>162</v>
@@ -2435,13 +2435,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>144</v>
@@ -2470,13 +2470,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>150</v>
@@ -2505,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>168</v>
@@ -2540,13 +2540,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>174</v>
@@ -2575,13 +2575,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>180</v>
@@ -2610,13 +2610,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>186</v>
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>54</v>
@@ -2680,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>66</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>192</v>
@@ -2750,13 +2750,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>198</v>
@@ -2785,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>60</v>
@@ -2820,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>66</v>
@@ -2855,6 +2855,6 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="91" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Table_S6_RTqPCR-dCT_ms.xlsx
+++ b/Table_S6_RTqPCR-dCT_ms.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikaellison/Library/Mobile Documents/com~apple~CloudDocs/Documents/umn.pmb/SpringerLab/manuscripts/mu.pro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8739A8E-978A-0F48-B321-68D3F6E469CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7102D5-7BCE-1643-A7CB-DF6FA19A5A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="580" windowWidth="38400" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9920" yWindow="780" windowWidth="38400" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="230318_dCT_TableS6" sheetId="1" r:id="rId1"/>
+    <sheet name="RT-qPCR_dCT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -718,7 +718,7 @@
     <t>Mu TSS</t>
   </si>
   <si>
-    <t>gene TSS</t>
+    <t>gene TSS-Mu</t>
   </si>
 </sst>
 </file>
@@ -1609,14 +1609,14 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="198" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" customWidth="1"/>

--- a/Table_S6_RTqPCR-dCT_ms.xlsx
+++ b/Table_S6_RTqPCR-dCT_ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikaellison/Library/Mobile Documents/com~apple~CloudDocs/Documents/umn.pmb/SpringerLab/manuscripts/mu.pro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7102D5-7BCE-1643-A7CB-DF6FA19A5A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D15DF6D-FC14-F34C-95A2-0D7F2D9E8951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9920" yWindow="780" windowWidth="38400" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="234">
   <si>
     <t>mutant</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>gene TSS-Mu</t>
+  </si>
+  <si>
+    <t>gene TSS partial</t>
   </si>
 </sst>
 </file>
@@ -1610,13 +1613,13 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="198" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
@@ -2435,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>219</v>
@@ -2470,7 +2473,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>219</v>
@@ -2855,6 +2858,6 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>